--- a/biology/Zoologie/Craniata_(Brachiopodes)/Craniata_(Brachiopodes).xlsx
+++ b/biology/Zoologie/Craniata_(Brachiopodes)/Craniata_(Brachiopodes).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Craniata sont une classe de brachiopodes connue depuis la fin du Cambrien il y a environ 500 Ma (millions d'années) et dont l'un des trois ordres qui lui sont rattachés, les Craniida, est représenté par des espèces encore vivantes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Craniata sont une classe de brachiopodes connue depuis la fin du Cambrien il y a environ 500 Ma (millions d'années) et dont l'un des trois ordres qui lui sont rattachés, les Craniida, est représenté par des espèces encore vivantes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe des Craniata a été créée en 1996 par Alwyn Williams (d) (1921-2004), Sandra J. Carlson (d), C. Howard C. Brunton (d), Lars E. Holmer (d) et Leonid E. Popov (d).
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces brachiopodes de forme arrondie et aplatie sont toujours fixés à un substrat induré. Ils ont souvent fixés sur d'autres coquillages (voir photo) ou sur des individus de la même espèce.
 </t>
@@ -573,7 +589,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce groupe des Craniata s'appelait autrefois les craniformes. Leur nouveau nom est homonyme de celui proposé pour un clade de Chordés : Craniata.
 </t>
@@ -604,7 +622,9 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Craniida Waagen, 1885
 † Craniopsida Gorjansky &amp; Popov, 1985
